--- a/radar.xlsx
+++ b/radar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\radar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F8ECDA-2166-491B-8E7F-EBBF2CD3AF85}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2433E128-DFA4-41E1-80C6-83D25B8E2996}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E547B4D-2616-4F3E-B018-C687B36484AC}"/>
   </bookViews>
@@ -42,12 +42,6 @@
     <t>quadrant</t>
   </si>
   <si>
-    <t>IsNew</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Engineering</t>
   </si>
   <si>
@@ -148,6 +142,12 @@
   </si>
   <si>
     <t>Responsibility Process</t>
+  </si>
+  <si>
+    <t>isNew</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,38 +538,38 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -577,13 +577,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -591,13 +591,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -605,13 +605,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -619,13 +619,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -633,13 +633,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -647,13 +647,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -661,13 +661,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -675,13 +675,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -689,13 +689,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -703,13 +703,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -731,13 +731,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
@@ -745,13 +745,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
@@ -759,13 +759,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
@@ -773,13 +773,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
@@ -787,13 +787,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
@@ -801,13 +801,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
@@ -815,13 +815,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
@@ -829,13 +829,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
@@ -843,13 +843,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
@@ -857,13 +857,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
@@ -871,13 +871,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
@@ -885,13 +885,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
